--- a/biology/Botanique/Bencao_jing_jizhu/Bencao_jing_jizhu.xlsx
+++ b/biology/Botanique/Bencao_jing_jizhu/Bencao_jing_jizhu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Commentaires du classique de la matière médicale
@@ -516,11 +528,13 @@
           <t>Structure du texte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tao Hongjing a écrit sa matière médicale en deux étapes. Il compose d’abord un Shennong bencao jing 神农本草经, en 3 chapitres et 750 notices de description des drogues[n 2] puis peu après, il réorganise le plan de sa matière médicale et publie le Bencao jing jizhu 本草經 集注 en 7 chapitres. Le contenu des deux ouvrages est identique, comme l’indique une note à la fin de la préface du dernier ouvrage[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tao Hongjing a écrit sa matière médicale en deux étapes. Il compose d’abord un Shennong bencao jing 神农本草经, en 3 chapitres et 750 notices de description des drogues[n 2] puis peu après, il réorganise le plan de sa matière médicale et publie le Bencao jing jizhu 本草經 集注 en 7 chapitres. Le contenu des deux ouvrages est identique, comme l’indique une note à la fin de la préface du dernier ouvrage.
 Le premier chapitre du Bencao jing jizhu de Tao Hongjing s’inquiète de l’ignorance générale des acteurs du traitement et de l’usage de la matière médicale, en raison d'un manque de circulation de l'information.
-« Les médecins ne connaissent pas les drogues. Ils s’appuient exclusivement sur les vendeurs de marché. Les vendeurs eux, ne comprennent pas la différentiation et l’évaluation [des drogues] ; ils chargent des spécialistes pour collecter et délivrer les drogues. Ces collecteurs et livreurs se passent les uns aux autres leurs méthodes et agissent dans l’ignorance. Ainsi, il n’y a pas de contrôle de la pureté, de la qualité ou de l’absence de risques [des drogues] » (Paul Unschuld[1])
+« Les médecins ne connaissent pas les drogues. Ils s’appuient exclusivement sur les vendeurs de marché. Les vendeurs eux, ne comprennent pas la différentiation et l’évaluation [des drogues] ; ils chargent des spécialistes pour collecter et délivrer les drogues. Ces collecteurs et livreurs se passent les uns aux autres leurs méthodes et agissent dans l’ignorance. Ainsi, il n’y a pas de contrôle de la pureté, de la qualité ou de l’absence de risques [des drogues] » (Paul Unschuld)
 Il donne des indications générales sur la période de récolte des racines, des fleurs ou des feuilles.
 « Les racines sont souvent récoltées le deuxième et huitième mois, car au début du printemps, la sève commence à monter avant d'atteindre les branches et les feuilles, ce qui fait que leur force est pure et concentrée. En automne, les branches et les feuilles commencent à se flétrir, et la sève redescend vers les racines. Si nous examinons cela en pratique, au printemps, il est préférable de récolter tôt, et en automne, de récolter tard, quant aux fleurs, fruits, tiges, et feuilles, ils doivent être récoltés selon leur maturité. »
 Il précise les anciennes et nouvelles unités de mesure. Après la collecte des plantes médicinales, vient leur préparation, séchage, découpe, pulvérisation, pilonnage etc. Les méthodes de fabrication des pilules, des poudres, décoctions etc. sont aussi passées en revue.
@@ -538,7 +552,7 @@
 l’ancien texte du Benjing (anonyme)
 « les notes additionnelles des médecins renommés » ajoutées par Tao Hongjing
 les notes personnelles de Tao Hongjing
-D’après les documents trouvés à Dunhuang sur le Bencao jizhu, les parties du texte venant du Shennong benjing (anonyme) sont écrites à l’encre rouge, celles venant du Mingyi fupin des médecins célèbres, sont écrites à l’encre noire et les propres commentaires de Tao Hongjing sont donnés en écriture plus petite[2].
+D’après les documents trouvés à Dunhuang sur le Bencao jizhu, les parties du texte venant du Shennong benjing (anonyme) sont écrites à l’encre rouge, celles venant du Mingyi fupin des médecins célèbres, sont écrites à l’encre noire et les propres commentaires de Tao Hongjing sont donnés en écriture plus petite.
 </t>
         </is>
       </c>
@@ -567,15 +581,17 @@
           <t>Histoire du texte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du texte originel perdu depuis longtemps, des fragments ont été découverts dans les grottes de Mogao de Dunhuang 敦煌 ainsi que dans les pharmacopées suivantes[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du texte originel perdu depuis longtemps, des fragments ont été découverts dans les grottes de Mogao de Dunhuang 敦煌 ainsi que dans les pharmacopées suivantes
 Xinxiu bencao 新修本草 (659) « Nouvelle révision de la matière médicale » de Su Jing 蘇敬 / 苏敬
 Jia you ben cao 嘉祐本草 « Matière médicale de la période de règne Jia you » (1060) de Zhang Yuxi 掌禹錫 et al.
 Zhenglei bencao 證類 « Materia medica vérifiée et catégorisée » (1098-1108) de Tang Shenwei 唐慎微 (c. 1056-1093)
 Bencao gangmu 本草纲目 (1593) de Li Shizhen 李时珍
 Les fragments trouvés à Dunhuang, contiennent la totalité du premier chapitre du Bencao jing jizhu, exception faite des deux premières lignes de la préface. Ce qui permet de comparer le texte originel de Tao Hongjing et les textes qui lui sont attribués et qui ont été transmis par citation dans les bencao plus tardives. Et on constate des différences insignifiantes.
-La préface du Bencao jizhu 本草集注[4] donne des informations sur le contexte historique de production des premières bencao. Il décrit notamment comment des incendies sous les dynasties des Han postérieurs 后汉 (25-220) et la dynastie Jin (265-420) 晉 firent disparaitre un millier d’ouvrages. De l’ouvrage fondamental à l’origine de la longue tradition des pharmacopées, le Shennong bencao jing anonyme (abréviation Benjing), il ne reste que quatre chapitres. Par l’ordonnancement des lieux d’origine des drogues, Tao Hongjing suppose que le texte aurait été écrit sous les Han postérieurs. Il semblerait qu’il y eut plusieurs éditions comportant 595 ou 431 ou 319 drogues.
+La préface du Bencao jizhu 本草集注 donne des informations sur le contexte historique de production des premières bencao. Il décrit notamment comment des incendies sous les dynasties des Han postérieurs 后汉 (25-220) et la dynastie Jin (265-420) 晉 firent disparaitre un millier d’ouvrages. De l’ouvrage fondamental à l’origine de la longue tradition des pharmacopées, le Shennong bencao jing anonyme (abréviation Benjing), il ne reste que quatre chapitres. Par l’ordonnancement des lieux d’origine des drogues, Tao Hongjing suppose que le texte aurait été écrit sous les Han postérieurs. Il semblerait qu’il y eut plusieurs éditions comportant 595 ou 431 ou 319 drogues.
 Après avoir adressé une critique sévère de toutes les insuffisances et incohérences du texte, il indique avoir repris les 365 drogues du Benjing auxquelles il rajoute 365 drogues supplémentaires venant de médecins célèbres, en remédiant aux insuffisances et incohérences dénoncées.
 De cette préface, nous extrayons les informations historiques suivantes:
 </t>
